--- a/TestData/JTPS-DEVQA/ProcessStepTypes.xlsx
+++ b/TestData/JTPS-DEVQA/ProcessStepTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="117">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -289,9 +289,6 @@
     <t>wnd_Confirmationdialog</t>
   </si>
   <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -365,6 +359,12 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>aut</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,22 +1004,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>9</v>
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
@@ -1087,7 +1087,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -1107,17 +1107,19 @@
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="M3" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="15"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -1153,10 +1155,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
@@ -1191,15 +1193,16 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="11"/>
@@ -1237,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="15"/>
@@ -1279,13 +1282,12 @@
         <v>66</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>35</v>
       </c>
       <c r="Q7" s="11"/>
@@ -1321,10 +1323,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
@@ -1349,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
@@ -1365,18 +1367,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>37</v>
@@ -1419,13 +1421,12 @@
         <v>66</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="11"/>
@@ -1461,13 +1462,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>44</v>
@@ -1507,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="16"/>
@@ -1549,10 +1550,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>37</v>
@@ -1595,13 +1596,13 @@
         <v>51</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>50</v>
@@ -1641,13 +1642,13 @@
         <v>51</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P15" s="25" t="s">
         <v>53</v>
@@ -1687,13 +1688,13 @@
         <v>51</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>54</v>
@@ -1732,13 +1733,13 @@
         <v>51</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P17" s="35" t="s">
         <v>55</v>
@@ -1780,13 +1781,13 @@
         <v>59</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P18" s="25" t="s">
         <v>55</v>
@@ -1826,13 +1827,13 @@
         <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>60</v>
@@ -1872,13 +1873,13 @@
         <v>51</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>61</v>
@@ -1918,13 +1919,13 @@
         <v>51</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>62</v>
@@ -1964,13 +1965,13 @@
         <v>64</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P22" s="25" t="s">
         <v>55</v>
@@ -2010,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
@@ -2052,13 +2053,13 @@
         <v>65</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>55</v>
@@ -2098,13 +2099,13 @@
         <v>66</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P25" s="36" t="s">
         <v>54</v>
@@ -2144,13 +2145,13 @@
         <v>69</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P26" s="36" t="s">
         <v>68</v>
@@ -2186,10 +2187,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="26"/>
       <c r="M27" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="36"/>
@@ -2230,13 +2231,13 @@
         <v>66</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>54</v>
@@ -2276,13 +2277,13 @@
         <v>75</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>74</v>
@@ -2319,16 +2320,16 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>76</v>
@@ -2368,13 +2369,13 @@
         <v>75</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>78</v>
@@ -2414,13 +2415,13 @@
         <v>66</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>50</v>
@@ -2443,7 +2444,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>19</v>
@@ -2457,20 +2458,18 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="26" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M33" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O33" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="P33" s="15"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
@@ -2478,7 +2477,7 @@
       <c r="U33" s="14"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="27"/>
+      <c r="X33" s="11"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
@@ -2489,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>19</v>
@@ -2498,24 +2497,24 @@
         <v>21</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="26" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
@@ -2535,7 +2534,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>19</v>
@@ -2546,28 +2545,28 @@
       <c r="I35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="1" t="s">
-        <v>103</v>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="27"/>
@@ -2592,16 +2591,16 @@
       <c r="I36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="22" t="s">
-        <v>47</v>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="11" t="s">
         <v>37</v>
@@ -2618,7 +2617,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="27"/>
     </row>
-    <row r="37" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -2626,14 +2625,14 @@
         <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>19</v>
@@ -2642,35 +2641,35 @@
         <v>21</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="10" t="s">
-        <v>108</v>
+      <c r="L37" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
+        <v>114</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
       <c r="X37" s="27"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="23"/>
@@ -2679,7 +2678,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>19</v>
@@ -2688,33 +2687,33 @@
         <v>21</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="26" t="s">
-        <v>66</v>
+      <c r="L38" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="11"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="27"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
@@ -2725,7 +2724,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>19</v>
@@ -2738,20 +2737,20 @@
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="10" t="s">
-        <v>107</v>
+      <c r="L39" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
@@ -2771,7 +2770,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>19</v>
@@ -2784,20 +2783,20 @@
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="26" t="s">
-        <v>85</v>
+      <c r="L40" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
@@ -2817,7 +2816,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>19</v>
@@ -2834,16 +2833,16 @@
         <v>85</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
@@ -2863,7 +2862,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>19</v>
@@ -2877,19 +2876,19 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="26" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
@@ -2900,7 +2899,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="11"/>
     </row>
-    <row r="43" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="23"/>
@@ -2909,7 +2908,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>19</v>
@@ -2918,24 +2917,24 @@
         <v>21</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="26" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
@@ -2946,7 +2945,7 @@
       <c r="W43" s="9"/>
       <c r="X43" s="11"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="23"/>
@@ -2955,7 +2954,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>19</v>
@@ -2964,24 +2963,24 @@
         <v>21</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="26" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
@@ -2998,10 +2997,10 @@
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>19</v>
@@ -3014,26 +3013,26 @@
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="26" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>90</v>
+        <v>114</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="11"/>
@@ -3061,13 +3060,13 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>37</v>
@@ -3110,10 +3109,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>37</v>
@@ -3156,13 +3155,13 @@
         <v>66</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>54</v>
@@ -3199,16 +3198,16 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>76</v>
@@ -3248,13 +3247,13 @@
         <v>66</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>50</v>
@@ -3294,16 +3293,16 @@
         <v>51</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
@@ -3340,16 +3339,16 @@
         <v>51</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
@@ -3386,13 +3385,13 @@
         <v>66</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P53" s="15" t="s">
         <v>44</v>
@@ -3415,7 +3414,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>19</v>
@@ -3428,20 +3427,20 @@
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="10" t="s">
-        <v>66</v>
+      <c r="L54" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -3474,14 +3473,14 @@
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="1" t="s">
-        <v>103</v>
+      <c r="L55" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>37</v>
@@ -3507,7 +3506,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>19</v>
@@ -3520,26 +3519,26 @@
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="L56" s="22" t="s">
-        <v>47</v>
+      <c r="L56" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="11"/>
@@ -3553,7 +3552,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>19</v>
@@ -3566,20 +3565,20 @@
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="10" t="s">
-        <v>94</v>
+      <c r="L57" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
@@ -3599,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>19</v>
@@ -3608,30 +3607,28 @@
         <v>21</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="26" t="s">
-        <v>66</v>
+      <c r="L58" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P58" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="11"/>
@@ -3645,7 +3642,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>19</v>
@@ -3654,28 +3651,30 @@
         <v>21</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="10" t="s">
-        <v>89</v>
+      <c r="L59" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="11"/>
@@ -3689,7 +3688,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>19</v>
@@ -3702,20 +3701,20 @@
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="10" t="s">
-        <v>89</v>
+      <c r="L60" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -3735,7 +3734,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>19</v>
@@ -3744,28 +3743,30 @@
         <v>21</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O61" s="11"/>
-      <c r="P61" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
       <c r="X61" s="11"/>
@@ -3779,7 +3780,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>19</v>
@@ -3796,16 +3797,16 @@
         <v>66</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
@@ -3825,7 +3826,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>19</v>
@@ -3834,30 +3835,28 @@
         <v>21</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="10" t="s">
-        <v>66</v>
+      <c r="L63" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="M63" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O63" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N63" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P63" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="11"/>
@@ -3880,31 +3879,33 @@
         <v>21</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="10" t="s">
-        <v>96</v>
+      <c r="L64" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
-      <c r="X64" s="11"/>
+      <c r="X64" s="27"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
@@ -3929,13 +3930,13 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>37</v>
@@ -3950,7 +3951,7 @@
       <c r="U65" s="11"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
-      <c r="X65" s="11"/>
+      <c r="X65" s="27"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
@@ -3978,10 +3979,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>37</v>
@@ -3996,7 +3997,7 @@
       <c r="U66" s="11"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
-      <c r="X66" s="11"/>
+      <c r="X66" s="27"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
@@ -4007,7 +4008,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>19</v>
@@ -4016,21 +4017,21 @@
         <v>21</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P67" s="15" t="s">
         <v>74</v>
@@ -4042,7 +4043,7 @@
       <c r="U67" s="14"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
-      <c r="X67" s="11"/>
+      <c r="X67" s="27"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
@@ -4062,24 +4063,24 @@
         <v>21</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="26" t="s">
-        <v>66</v>
+      <c r="L68" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P68" s="15" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
@@ -4099,7 +4100,7 @@
         <v>19</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>19</v>
@@ -4116,22 +4117,22 @@
         <v>66</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>90</v>
+        <v>114</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="27"/>
@@ -4156,28 +4157,27 @@
       <c r="I70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="11"/>
       <c r="K70" s="11"/>
-      <c r="L70" s="1" t="s">
-        <v>103</v>
+      <c r="L70" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P70" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="27"/>
@@ -4191,7 +4191,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>19</v>
@@ -4204,29 +4204,29 @@
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
-      <c r="L71" s="22" t="s">
-        <v>47</v>
+      <c r="L71" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O71" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P71" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
-      <c r="X71" s="27"/>
+      <c r="X71" s="11"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
@@ -4246,24 +4246,24 @@
         <v>21</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="10" t="s">
-        <v>98</v>
+      <c r="L72" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
@@ -4282,49 +4282,47 @@
         <v>18</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="5" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>99</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
-      <c r="L73" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N73" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O73" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P73" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="27"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P73" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="W73" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X73" s="11"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
@@ -4352,13 +4350,13 @@
         <v>66</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P74" s="15" t="s">
         <v>53</v>
@@ -4397,16 +4395,16 @@
         <v>66</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
@@ -4443,13 +4441,13 @@
         <v>66</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P76" s="15" t="s">
         <v>44</v>
@@ -4489,16 +4487,16 @@
         <v>66</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O77" s="11" t="s">
         <v>90</v>
       </c>
       <c r="P77" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
@@ -4537,31 +4535,31 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
@@ -4569,10 +4567,10 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P79" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
@@ -4580,10 +4578,10 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
       <c r="V79" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X79" s="11"/>
     </row>
